--- a/moduli_iscrizione/modulo iscrizione CARBONERA.xlsx
+++ b/moduli_iscrizione/modulo iscrizione CARBONERA.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\moduli_iscrizione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enric\Documents\GitHub\karate\moduli_iscrizione\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFECF37-A472-4BB4-9270-C547131E64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>Società</t>
   </si>
@@ -261,11 +262,20 @@
   <si>
     <t>GABRIELE</t>
   </si>
+  <si>
+    <t>PSHENYCHNYI</t>
+  </si>
+  <si>
+    <t>EUGENYO</t>
+  </si>
+  <si>
+    <t>OLEXANDR</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +409,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,24 +696,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.7" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="19.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="41.1796875" style="4" customWidth="1"/>
     <col min="2" max="3" width="25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="4"/>
+    <col min="4" max="4" width="27.81640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="32.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -743,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="str">
         <f>IF(B3&lt;&gt;"",$A$2,"")</f>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -764,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="str">
         <f t="shared" ref="A4:A67" si="0">IF(B4&lt;&gt;"",$A$2,"")</f>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -785,7 +795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -806,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -827,7 +837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -848,7 +858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -869,7 +879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -890,7 +900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -911,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -932,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -953,7 +963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>ASD KI KAI DOJO CARBONERA</v>
@@ -974,29 +984,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ASD KI KAI DOJO CARBONERA</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+        <v>ASD KI KAI DOJO CARBONERA</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1007,7 +1037,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1018,7 +1048,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1029,7 +1059,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1040,7 +1070,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1051,7 +1081,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1062,7 +1092,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1073,7 +1103,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1084,7 +1114,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1095,7 +1125,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1106,7 +1136,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1117,7 +1147,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1128,7 +1158,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1139,7 +1169,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1150,7 +1180,7 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1161,7 +1191,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1172,7 +1202,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1183,7 +1213,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1194,7 +1224,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1205,7 +1235,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1216,7 +1246,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1227,7 +1257,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1238,7 +1268,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1249,7 +1279,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1260,7 +1290,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1271,7 +1301,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1282,7 +1312,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1293,7 +1323,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1304,7 +1334,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1315,7 +1345,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1326,7 +1356,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1337,7 +1367,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1348,7 +1378,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1359,7 +1389,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1370,7 +1400,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1381,7 +1411,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1392,7 +1422,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1403,7 +1433,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1414,7 +1444,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1425,7 +1455,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1436,7 +1466,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1447,7 +1477,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1458,7 +1488,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1469,7 +1499,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1480,7 +1510,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1491,7 +1521,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1502,7 +1532,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1513,7 +1543,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1524,7 +1554,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1535,7 +1565,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1546,7 +1576,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1557,7 +1587,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1568,7 +1598,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="str">
         <f t="shared" ref="A68:A131" si="1">IF(B68&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -1579,7 +1609,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1590,7 +1620,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1601,7 +1631,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1612,7 +1642,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1623,7 +1653,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1634,7 +1664,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1645,7 +1675,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1656,7 +1686,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1667,7 +1697,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1678,7 +1708,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1689,7 +1719,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1700,7 +1730,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1711,7 +1741,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1722,7 +1752,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1733,7 +1763,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1744,7 +1774,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1755,7 +1785,7 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1766,7 +1796,7 @@
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1777,7 +1807,7 @@
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1788,7 +1818,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1799,7 +1829,7 @@
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1810,7 +1840,7 @@
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1821,7 +1851,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1832,7 +1862,7 @@
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1843,7 +1873,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1854,7 +1884,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1865,7 +1895,7 @@
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1876,7 +1906,7 @@
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1887,7 +1917,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1898,7 +1928,7 @@
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1909,7 +1939,7 @@
       <c r="E98" s="5"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1920,7 +1950,7 @@
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1931,7 +1961,7 @@
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1942,7 +1972,7 @@
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1953,7 +1983,7 @@
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1964,7 +1994,7 @@
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1975,7 +2005,7 @@
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1986,7 +2016,7 @@
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -1997,7 +2027,7 @@
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2008,7 +2038,7 @@
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2019,7 +2049,7 @@
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2030,7 +2060,7 @@
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2041,7 +2071,7 @@
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2052,7 +2082,7 @@
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2063,7 +2093,7 @@
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2074,7 +2104,7 @@
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2085,7 +2115,7 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2096,7 +2126,7 @@
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2107,7 +2137,7 @@
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2118,7 +2148,7 @@
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2129,7 +2159,7 @@
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2140,7 +2170,7 @@
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2151,7 +2181,7 @@
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2162,7 +2192,7 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2173,7 +2203,7 @@
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2184,7 +2214,7 @@
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2195,7 +2225,7 @@
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2206,7 +2236,7 @@
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2217,7 +2247,7 @@
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2228,7 +2258,7 @@
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2239,7 +2269,7 @@
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2250,7 +2280,7 @@
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2261,7 +2291,7 @@
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2272,7 +2302,7 @@
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="str">
         <f t="shared" ref="A132:A195" si="2">IF(B132&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -2283,7 +2313,7 @@
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2294,7 +2324,7 @@
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2305,7 +2335,7 @@
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2316,7 +2346,7 @@
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2327,7 +2357,7 @@
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2338,7 +2368,7 @@
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2349,7 +2379,7 @@
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2360,7 +2390,7 @@
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2371,7 +2401,7 @@
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2382,7 +2412,7 @@
       <c r="E141" s="5"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2393,7 +2423,7 @@
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2404,7 +2434,7 @@
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2415,7 +2445,7 @@
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2426,7 +2456,7 @@
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2437,7 +2467,7 @@
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2448,7 +2478,7 @@
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2459,7 +2489,7 @@
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2470,7 +2500,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2481,7 +2511,7 @@
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2492,7 +2522,7 @@
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2503,7 +2533,7 @@
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2514,7 +2544,7 @@
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2525,7 +2555,7 @@
       <c r="E154" s="5"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2536,7 +2566,7 @@
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2547,7 +2577,7 @@
       <c r="E156" s="5"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2558,7 +2588,7 @@
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2569,7 +2599,7 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2580,7 +2610,7 @@
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2591,7 +2621,7 @@
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2602,7 +2632,7 @@
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2613,7 +2643,7 @@
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2624,7 +2654,7 @@
       <c r="E163" s="5"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2635,7 +2665,7 @@
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2646,7 +2676,7 @@
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2657,7 +2687,7 @@
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2668,7 +2698,7 @@
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2679,7 +2709,7 @@
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2690,7 +2720,7 @@
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2701,7 +2731,7 @@
       <c r="E170" s="5"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2712,7 +2742,7 @@
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2723,7 +2753,7 @@
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2734,7 +2764,7 @@
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2745,7 +2775,7 @@
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2756,7 +2786,7 @@
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2767,7 +2797,7 @@
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2778,7 +2808,7 @@
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2789,7 +2819,7 @@
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2800,7 +2830,7 @@
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2811,7 +2841,7 @@
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2822,7 +2852,7 @@
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2833,7 +2863,7 @@
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2844,7 +2874,7 @@
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2855,7 +2885,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2866,7 +2896,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2877,7 +2907,7 @@
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2888,7 +2918,7 @@
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2899,7 +2929,7 @@
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2910,7 +2940,7 @@
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2921,7 +2951,7 @@
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2932,7 +2962,7 @@
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2943,7 +2973,7 @@
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2954,7 +2984,7 @@
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2965,7 +2995,7 @@
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -2976,7 +3006,7 @@
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="str">
         <f t="shared" ref="A196:A259" si="3">IF(B196&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -2987,7 +3017,7 @@
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2998,7 +3028,7 @@
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3009,7 +3039,7 @@
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3020,7 +3050,7 @@
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3031,7 +3061,7 @@
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3042,7 +3072,7 @@
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
     </row>
-    <row r="202" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3053,7 +3083,7 @@
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
     </row>
-    <row r="203" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3064,7 +3094,7 @@
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
     </row>
-    <row r="204" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3075,7 +3105,7 @@
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
     </row>
-    <row r="205" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3086,7 +3116,7 @@
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
     </row>
-    <row r="206" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3097,7 +3127,7 @@
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
     </row>
-    <row r="207" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3108,7 +3138,7 @@
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
     </row>
-    <row r="208" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3119,7 +3149,7 @@
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
     </row>
-    <row r="209" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3130,7 +3160,7 @@
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
     </row>
-    <row r="210" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3141,7 +3171,7 @@
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
     </row>
-    <row r="211" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3152,7 +3182,7 @@
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
     </row>
-    <row r="212" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3163,7 +3193,7 @@
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
     </row>
-    <row r="213" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3174,7 +3204,7 @@
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
     </row>
-    <row r="214" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3185,7 +3215,7 @@
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
     </row>
-    <row r="215" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3196,7 +3226,7 @@
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
     </row>
-    <row r="216" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3207,7 +3237,7 @@
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
     </row>
-    <row r="217" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3218,7 +3248,7 @@
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
     </row>
-    <row r="218" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3229,7 +3259,7 @@
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
     </row>
-    <row r="219" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3240,7 +3270,7 @@
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
     </row>
-    <row r="220" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3251,7 +3281,7 @@
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
     </row>
-    <row r="221" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3262,7 +3292,7 @@
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
     </row>
-    <row r="222" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3273,7 +3303,7 @@
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
     </row>
-    <row r="223" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3284,7 +3314,7 @@
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
     </row>
-    <row r="224" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3295,7 +3325,7 @@
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
     </row>
-    <row r="225" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3306,7 +3336,7 @@
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
     </row>
-    <row r="226" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3317,7 +3347,7 @@
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
     </row>
-    <row r="227" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3328,7 +3358,7 @@
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
     </row>
-    <row r="228" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3339,7 +3369,7 @@
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
     </row>
-    <row r="229" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3350,7 +3380,7 @@
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
     </row>
-    <row r="230" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3361,7 +3391,7 @@
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
     </row>
-    <row r="231" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3372,7 +3402,7 @@
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
     </row>
-    <row r="232" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3383,7 +3413,7 @@
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
     </row>
-    <row r="233" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3394,7 +3424,7 @@
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
     </row>
-    <row r="234" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3405,7 +3435,7 @@
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
     </row>
-    <row r="235" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3416,7 +3446,7 @@
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
     </row>
-    <row r="236" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3427,7 +3457,7 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
     </row>
-    <row r="237" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3438,7 +3468,7 @@
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
     </row>
-    <row r="238" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3449,7 +3479,7 @@
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
     </row>
-    <row r="239" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3460,7 +3490,7 @@
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
     </row>
-    <row r="240" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3471,7 +3501,7 @@
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
     </row>
-    <row r="241" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3482,7 +3512,7 @@
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
     </row>
-    <row r="242" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3493,7 +3523,7 @@
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
     </row>
-    <row r="243" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3504,7 +3534,7 @@
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
     </row>
-    <row r="244" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3515,7 +3545,7 @@
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
     </row>
-    <row r="245" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3526,7 +3556,7 @@
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
     </row>
-    <row r="246" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3537,7 +3567,7 @@
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
     </row>
-    <row r="247" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3548,7 +3578,7 @@
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
     </row>
-    <row r="248" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3559,7 +3589,7 @@
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
     </row>
-    <row r="249" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3570,7 +3600,7 @@
       <c r="E249" s="5"/>
       <c r="F249" s="5"/>
     </row>
-    <row r="250" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3581,7 +3611,7 @@
       <c r="E250" s="5"/>
       <c r="F250" s="5"/>
     </row>
-    <row r="251" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3592,7 +3622,7 @@
       <c r="E251" s="5"/>
       <c r="F251" s="5"/>
     </row>
-    <row r="252" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3603,7 +3633,7 @@
       <c r="E252" s="5"/>
       <c r="F252" s="5"/>
     </row>
-    <row r="253" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3614,7 +3644,7 @@
       <c r="E253" s="5"/>
       <c r="F253" s="5"/>
     </row>
-    <row r="254" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3625,7 +3655,7 @@
       <c r="E254" s="5"/>
       <c r="F254" s="5"/>
     </row>
-    <row r="255" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3636,7 +3666,7 @@
       <c r="E255" s="5"/>
       <c r="F255" s="5"/>
     </row>
-    <row r="256" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3647,7 +3677,7 @@
       <c r="E256" s="5"/>
       <c r="F256" s="5"/>
     </row>
-    <row r="257" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3658,7 +3688,7 @@
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
     </row>
-    <row r="258" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3669,7 +3699,7 @@
       <c r="E258" s="5"/>
       <c r="F258" s="5"/>
     </row>
-    <row r="259" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3680,7 +3710,7 @@
       <c r="E259" s="5"/>
       <c r="F259" s="5"/>
     </row>
-    <row r="260" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="str">
         <f t="shared" ref="A260:A323" si="4">IF(B260&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -3691,7 +3721,7 @@
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
     </row>
-    <row r="261" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3702,7 +3732,7 @@
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
     </row>
-    <row r="262" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3713,7 +3743,7 @@
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
     </row>
-    <row r="263" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3724,7 +3754,7 @@
       <c r="E263" s="5"/>
       <c r="F263" s="5"/>
     </row>
-    <row r="264" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3735,7 +3765,7 @@
       <c r="E264" s="5"/>
       <c r="F264" s="5"/>
     </row>
-    <row r="265" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3746,7 +3776,7 @@
       <c r="E265" s="5"/>
       <c r="F265" s="5"/>
     </row>
-    <row r="266" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3757,7 +3787,7 @@
       <c r="E266" s="5"/>
       <c r="F266" s="5"/>
     </row>
-    <row r="267" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3768,7 +3798,7 @@
       <c r="E267" s="5"/>
       <c r="F267" s="5"/>
     </row>
-    <row r="268" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3779,7 +3809,7 @@
       <c r="E268" s="5"/>
       <c r="F268" s="5"/>
     </row>
-    <row r="269" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3790,7 +3820,7 @@
       <c r="E269" s="5"/>
       <c r="F269" s="5"/>
     </row>
-    <row r="270" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3801,7 +3831,7 @@
       <c r="E270" s="5"/>
       <c r="F270" s="5"/>
     </row>
-    <row r="271" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3812,7 +3842,7 @@
       <c r="E271" s="5"/>
       <c r="F271" s="5"/>
     </row>
-    <row r="272" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3823,7 +3853,7 @@
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
     </row>
-    <row r="273" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3834,7 +3864,7 @@
       <c r="E273" s="5"/>
       <c r="F273" s="5"/>
     </row>
-    <row r="274" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3845,7 +3875,7 @@
       <c r="E274" s="5"/>
       <c r="F274" s="5"/>
     </row>
-    <row r="275" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3856,7 +3886,7 @@
       <c r="E275" s="5"/>
       <c r="F275" s="5"/>
     </row>
-    <row r="276" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3867,7 +3897,7 @@
       <c r="E276" s="5"/>
       <c r="F276" s="5"/>
     </row>
-    <row r="277" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3878,7 +3908,7 @@
       <c r="E277" s="5"/>
       <c r="F277" s="5"/>
     </row>
-    <row r="278" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3889,7 +3919,7 @@
       <c r="E278" s="5"/>
       <c r="F278" s="5"/>
     </row>
-    <row r="279" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3900,7 +3930,7 @@
       <c r="E279" s="5"/>
       <c r="F279" s="5"/>
     </row>
-    <row r="280" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3911,7 +3941,7 @@
       <c r="E280" s="5"/>
       <c r="F280" s="5"/>
     </row>
-    <row r="281" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3922,7 +3952,7 @@
       <c r="E281" s="5"/>
       <c r="F281" s="5"/>
     </row>
-    <row r="282" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3933,7 +3963,7 @@
       <c r="E282" s="5"/>
       <c r="F282" s="5"/>
     </row>
-    <row r="283" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3944,7 +3974,7 @@
       <c r="E283" s="5"/>
       <c r="F283" s="5"/>
     </row>
-    <row r="284" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3955,7 +3985,7 @@
       <c r="E284" s="5"/>
       <c r="F284" s="5"/>
     </row>
-    <row r="285" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3966,7 +3996,7 @@
       <c r="E285" s="5"/>
       <c r="F285" s="5"/>
     </row>
-    <row r="286" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3977,7 +4007,7 @@
       <c r="E286" s="5"/>
       <c r="F286" s="5"/>
     </row>
-    <row r="287" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3988,7 +4018,7 @@
       <c r="E287" s="5"/>
       <c r="F287" s="5"/>
     </row>
-    <row r="288" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3999,7 +4029,7 @@
       <c r="E288" s="5"/>
       <c r="F288" s="5"/>
     </row>
-    <row r="289" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4010,7 +4040,7 @@
       <c r="E289" s="5"/>
       <c r="F289" s="5"/>
     </row>
-    <row r="290" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4021,7 +4051,7 @@
       <c r="E290" s="5"/>
       <c r="F290" s="5"/>
     </row>
-    <row r="291" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4032,7 +4062,7 @@
       <c r="E291" s="5"/>
       <c r="F291" s="5"/>
     </row>
-    <row r="292" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4043,7 +4073,7 @@
       <c r="E292" s="5"/>
       <c r="F292" s="5"/>
     </row>
-    <row r="293" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4054,7 +4084,7 @@
       <c r="E293" s="5"/>
       <c r="F293" s="5"/>
     </row>
-    <row r="294" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4065,7 +4095,7 @@
       <c r="E294" s="5"/>
       <c r="F294" s="5"/>
     </row>
-    <row r="295" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4076,7 +4106,7 @@
       <c r="E295" s="5"/>
       <c r="F295" s="5"/>
     </row>
-    <row r="296" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4087,7 +4117,7 @@
       <c r="E296" s="5"/>
       <c r="F296" s="5"/>
     </row>
-    <row r="297" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4098,7 +4128,7 @@
       <c r="E297" s="5"/>
       <c r="F297" s="5"/>
     </row>
-    <row r="298" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4109,7 +4139,7 @@
       <c r="E298" s="5"/>
       <c r="F298" s="5"/>
     </row>
-    <row r="299" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4120,7 +4150,7 @@
       <c r="E299" s="5"/>
       <c r="F299" s="5"/>
     </row>
-    <row r="300" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4131,7 +4161,7 @@
       <c r="E300" s="5"/>
       <c r="F300" s="5"/>
     </row>
-    <row r="301" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4142,7 +4172,7 @@
       <c r="E301" s="5"/>
       <c r="F301" s="5"/>
     </row>
-    <row r="302" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4153,7 +4183,7 @@
       <c r="E302" s="5"/>
       <c r="F302" s="5"/>
     </row>
-    <row r="303" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4164,7 +4194,7 @@
       <c r="E303" s="5"/>
       <c r="F303" s="5"/>
     </row>
-    <row r="304" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4175,7 +4205,7 @@
       <c r="E304" s="5"/>
       <c r="F304" s="5"/>
     </row>
-    <row r="305" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4186,7 +4216,7 @@
       <c r="E305" s="5"/>
       <c r="F305" s="5"/>
     </row>
-    <row r="306" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4197,7 +4227,7 @@
       <c r="E306" s="5"/>
       <c r="F306" s="5"/>
     </row>
-    <row r="307" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4208,7 +4238,7 @@
       <c r="E307" s="5"/>
       <c r="F307" s="5"/>
     </row>
-    <row r="308" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4219,7 +4249,7 @@
       <c r="E308" s="5"/>
       <c r="F308" s="5"/>
     </row>
-    <row r="309" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4230,7 +4260,7 @@
       <c r="E309" s="5"/>
       <c r="F309" s="5"/>
     </row>
-    <row r="310" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4241,7 +4271,7 @@
       <c r="E310" s="5"/>
       <c r="F310" s="5"/>
     </row>
-    <row r="311" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4252,7 +4282,7 @@
       <c r="E311" s="5"/>
       <c r="F311" s="5"/>
     </row>
-    <row r="312" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4263,7 +4293,7 @@
       <c r="E312" s="5"/>
       <c r="F312" s="5"/>
     </row>
-    <row r="313" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4274,7 +4304,7 @@
       <c r="E313" s="5"/>
       <c r="F313" s="5"/>
     </row>
-    <row r="314" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4285,7 +4315,7 @@
       <c r="E314" s="5"/>
       <c r="F314" s="5"/>
     </row>
-    <row r="315" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4296,7 +4326,7 @@
       <c r="E315" s="5"/>
       <c r="F315" s="5"/>
     </row>
-    <row r="316" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4307,7 +4337,7 @@
       <c r="E316" s="5"/>
       <c r="F316" s="5"/>
     </row>
-    <row r="317" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4318,7 +4348,7 @@
       <c r="E317" s="5"/>
       <c r="F317" s="5"/>
     </row>
-    <row r="318" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4329,7 +4359,7 @@
       <c r="E318" s="5"/>
       <c r="F318" s="5"/>
     </row>
-    <row r="319" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4340,7 +4370,7 @@
       <c r="E319" s="5"/>
       <c r="F319" s="5"/>
     </row>
-    <row r="320" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4351,7 +4381,7 @@
       <c r="E320" s="5"/>
       <c r="F320" s="5"/>
     </row>
-    <row r="321" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4362,7 +4392,7 @@
       <c r="E321" s="5"/>
       <c r="F321" s="5"/>
     </row>
-    <row r="322" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4373,7 +4403,7 @@
       <c r="E322" s="5"/>
       <c r="F322" s="5"/>
     </row>
-    <row r="323" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4384,7 +4414,7 @@
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
     </row>
-    <row r="324" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="str">
         <f t="shared" ref="A324:A387" si="5">IF(B324&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -4395,7 +4425,7 @@
       <c r="E324" s="5"/>
       <c r="F324" s="5"/>
     </row>
-    <row r="325" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4406,7 +4436,7 @@
       <c r="E325" s="5"/>
       <c r="F325" s="5"/>
     </row>
-    <row r="326" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4417,7 +4447,7 @@
       <c r="E326" s="5"/>
       <c r="F326" s="5"/>
     </row>
-    <row r="327" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4428,7 +4458,7 @@
       <c r="E327" s="5"/>
       <c r="F327" s="5"/>
     </row>
-    <row r="328" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4439,7 +4469,7 @@
       <c r="E328" s="5"/>
       <c r="F328" s="5"/>
     </row>
-    <row r="329" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4450,7 +4480,7 @@
       <c r="E329" s="5"/>
       <c r="F329" s="5"/>
     </row>
-    <row r="330" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4461,7 +4491,7 @@
       <c r="E330" s="5"/>
       <c r="F330" s="5"/>
     </row>
-    <row r="331" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4472,7 +4502,7 @@
       <c r="E331" s="5"/>
       <c r="F331" s="5"/>
     </row>
-    <row r="332" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4483,7 +4513,7 @@
       <c r="E332" s="5"/>
       <c r="F332" s="5"/>
     </row>
-    <row r="333" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4494,7 +4524,7 @@
       <c r="E333" s="5"/>
       <c r="F333" s="5"/>
     </row>
-    <row r="334" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4505,7 +4535,7 @@
       <c r="E334" s="5"/>
       <c r="F334" s="5"/>
     </row>
-    <row r="335" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4516,7 +4546,7 @@
       <c r="E335" s="5"/>
       <c r="F335" s="5"/>
     </row>
-    <row r="336" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4527,7 +4557,7 @@
       <c r="E336" s="5"/>
       <c r="F336" s="5"/>
     </row>
-    <row r="337" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4538,7 +4568,7 @@
       <c r="E337" s="5"/>
       <c r="F337" s="5"/>
     </row>
-    <row r="338" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4549,7 +4579,7 @@
       <c r="E338" s="5"/>
       <c r="F338" s="5"/>
     </row>
-    <row r="339" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4560,7 +4590,7 @@
       <c r="E339" s="5"/>
       <c r="F339" s="5"/>
     </row>
-    <row r="340" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4571,7 +4601,7 @@
       <c r="E340" s="5"/>
       <c r="F340" s="5"/>
     </row>
-    <row r="341" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4582,7 +4612,7 @@
       <c r="E341" s="5"/>
       <c r="F341" s="5"/>
     </row>
-    <row r="342" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4593,7 +4623,7 @@
       <c r="E342" s="5"/>
       <c r="F342" s="5"/>
     </row>
-    <row r="343" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4604,7 +4634,7 @@
       <c r="E343" s="5"/>
       <c r="F343" s="5"/>
     </row>
-    <row r="344" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4615,7 +4645,7 @@
       <c r="E344" s="5"/>
       <c r="F344" s="5"/>
     </row>
-    <row r="345" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4626,7 +4656,7 @@
       <c r="E345" s="5"/>
       <c r="F345" s="5"/>
     </row>
-    <row r="346" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4637,7 +4667,7 @@
       <c r="E346" s="5"/>
       <c r="F346" s="5"/>
     </row>
-    <row r="347" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4648,7 +4678,7 @@
       <c r="E347" s="5"/>
       <c r="F347" s="5"/>
     </row>
-    <row r="348" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4659,7 +4689,7 @@
       <c r="E348" s="5"/>
       <c r="F348" s="5"/>
     </row>
-    <row r="349" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4670,7 +4700,7 @@
       <c r="E349" s="5"/>
       <c r="F349" s="5"/>
     </row>
-    <row r="350" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4681,7 +4711,7 @@
       <c r="E350" s="5"/>
       <c r="F350" s="5"/>
     </row>
-    <row r="351" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4692,7 +4722,7 @@
       <c r="E351" s="5"/>
       <c r="F351" s="5"/>
     </row>
-    <row r="352" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4703,7 +4733,7 @@
       <c r="E352" s="5"/>
       <c r="F352" s="5"/>
     </row>
-    <row r="353" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4714,7 +4744,7 @@
       <c r="E353" s="5"/>
       <c r="F353" s="5"/>
     </row>
-    <row r="354" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4725,7 +4755,7 @@
       <c r="E354" s="5"/>
       <c r="F354" s="5"/>
     </row>
-    <row r="355" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4736,7 +4766,7 @@
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
     </row>
-    <row r="356" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4747,7 +4777,7 @@
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
     </row>
-    <row r="357" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4758,7 +4788,7 @@
       <c r="E357" s="5"/>
       <c r="F357" s="5"/>
     </row>
-    <row r="358" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4769,7 +4799,7 @@
       <c r="E358" s="5"/>
       <c r="F358" s="5"/>
     </row>
-    <row r="359" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4780,7 +4810,7 @@
       <c r="E359" s="5"/>
       <c r="F359" s="5"/>
     </row>
-    <row r="360" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4791,7 +4821,7 @@
       <c r="E360" s="5"/>
       <c r="F360" s="5"/>
     </row>
-    <row r="361" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4802,7 +4832,7 @@
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
     </row>
-    <row r="362" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4813,7 +4843,7 @@
       <c r="E362" s="5"/>
       <c r="F362" s="5"/>
     </row>
-    <row r="363" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4824,7 +4854,7 @@
       <c r="E363" s="5"/>
       <c r="F363" s="5"/>
     </row>
-    <row r="364" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4835,7 +4865,7 @@
       <c r="E364" s="5"/>
       <c r="F364" s="5"/>
     </row>
-    <row r="365" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4846,7 +4876,7 @@
       <c r="E365" s="5"/>
       <c r="F365" s="5"/>
     </row>
-    <row r="366" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4857,7 +4887,7 @@
       <c r="E366" s="5"/>
       <c r="F366" s="5"/>
     </row>
-    <row r="367" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4868,7 +4898,7 @@
       <c r="E367" s="5"/>
       <c r="F367" s="5"/>
     </row>
-    <row r="368" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4879,7 +4909,7 @@
       <c r="E368" s="5"/>
       <c r="F368" s="5"/>
     </row>
-    <row r="369" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4890,7 +4920,7 @@
       <c r="E369" s="5"/>
       <c r="F369" s="5"/>
     </row>
-    <row r="370" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4901,7 +4931,7 @@
       <c r="E370" s="5"/>
       <c r="F370" s="5"/>
     </row>
-    <row r="371" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4912,7 +4942,7 @@
       <c r="E371" s="5"/>
       <c r="F371" s="5"/>
     </row>
-    <row r="372" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4923,7 +4953,7 @@
       <c r="E372" s="5"/>
       <c r="F372" s="5"/>
     </row>
-    <row r="373" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4934,7 +4964,7 @@
       <c r="E373" s="5"/>
       <c r="F373" s="5"/>
     </row>
-    <row r="374" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4945,7 +4975,7 @@
       <c r="E374" s="5"/>
       <c r="F374" s="5"/>
     </row>
-    <row r="375" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4956,7 +4986,7 @@
       <c r="E375" s="5"/>
       <c r="F375" s="5"/>
     </row>
-    <row r="376" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4967,7 +4997,7 @@
       <c r="E376" s="5"/>
       <c r="F376" s="5"/>
     </row>
-    <row r="377" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4978,7 +5008,7 @@
       <c r="E377" s="5"/>
       <c r="F377" s="5"/>
     </row>
-    <row r="378" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4989,7 +5019,7 @@
       <c r="E378" s="5"/>
       <c r="F378" s="5"/>
     </row>
-    <row r="379" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5000,7 +5030,7 @@
       <c r="E379" s="5"/>
       <c r="F379" s="5"/>
     </row>
-    <row r="380" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5011,7 +5041,7 @@
       <c r="E380" s="5"/>
       <c r="F380" s="5"/>
     </row>
-    <row r="381" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5022,7 +5052,7 @@
       <c r="E381" s="5"/>
       <c r="F381" s="5"/>
     </row>
-    <row r="382" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5033,7 +5063,7 @@
       <c r="E382" s="5"/>
       <c r="F382" s="5"/>
     </row>
-    <row r="383" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5044,7 +5074,7 @@
       <c r="E383" s="5"/>
       <c r="F383" s="5"/>
     </row>
-    <row r="384" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5055,7 +5085,7 @@
       <c r="E384" s="5"/>
       <c r="F384" s="5"/>
     </row>
-    <row r="385" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5066,7 +5096,7 @@
       <c r="E385" s="5"/>
       <c r="F385" s="5"/>
     </row>
-    <row r="386" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5077,7 +5107,7 @@
       <c r="E386" s="5"/>
       <c r="F386" s="5"/>
     </row>
-    <row r="387" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5088,7 +5118,7 @@
       <c r="E387" s="5"/>
       <c r="F387" s="5"/>
     </row>
-    <row r="388" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="str">
         <f t="shared" ref="A388:A451" si="6">IF(B388&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -5099,7 +5129,7 @@
       <c r="E388" s="5"/>
       <c r="F388" s="5"/>
     </row>
-    <row r="389" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5110,7 +5140,7 @@
       <c r="E389" s="5"/>
       <c r="F389" s="5"/>
     </row>
-    <row r="390" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5121,7 +5151,7 @@
       <c r="E390" s="5"/>
       <c r="F390" s="5"/>
     </row>
-    <row r="391" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5132,7 +5162,7 @@
       <c r="E391" s="5"/>
       <c r="F391" s="5"/>
     </row>
-    <row r="392" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5143,7 +5173,7 @@
       <c r="E392" s="5"/>
       <c r="F392" s="5"/>
     </row>
-    <row r="393" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5154,7 +5184,7 @@
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
     </row>
-    <row r="394" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5165,7 +5195,7 @@
       <c r="E394" s="5"/>
       <c r="F394" s="5"/>
     </row>
-    <row r="395" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5176,7 +5206,7 @@
       <c r="E395" s="5"/>
       <c r="F395" s="5"/>
     </row>
-    <row r="396" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5187,7 +5217,7 @@
       <c r="E396" s="5"/>
       <c r="F396" s="5"/>
     </row>
-    <row r="397" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5198,7 +5228,7 @@
       <c r="E397" s="5"/>
       <c r="F397" s="5"/>
     </row>
-    <row r="398" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5209,7 +5239,7 @@
       <c r="E398" s="5"/>
       <c r="F398" s="5"/>
     </row>
-    <row r="399" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5220,7 +5250,7 @@
       <c r="E399" s="5"/>
       <c r="F399" s="5"/>
     </row>
-    <row r="400" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5231,7 +5261,7 @@
       <c r="E400" s="5"/>
       <c r="F400" s="5"/>
     </row>
-    <row r="401" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5242,7 +5272,7 @@
       <c r="E401" s="5"/>
       <c r="F401" s="5"/>
     </row>
-    <row r="402" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5253,7 +5283,7 @@
       <c r="E402" s="5"/>
       <c r="F402" s="5"/>
     </row>
-    <row r="403" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5264,7 +5294,7 @@
       <c r="E403" s="5"/>
       <c r="F403" s="5"/>
     </row>
-    <row r="404" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5275,7 +5305,7 @@
       <c r="E404" s="5"/>
       <c r="F404" s="5"/>
     </row>
-    <row r="405" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5286,7 +5316,7 @@
       <c r="E405" s="5"/>
       <c r="F405" s="5"/>
     </row>
-    <row r="406" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5297,7 +5327,7 @@
       <c r="E406" s="5"/>
       <c r="F406" s="5"/>
     </row>
-    <row r="407" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5308,7 +5338,7 @@
       <c r="E407" s="5"/>
       <c r="F407" s="5"/>
     </row>
-    <row r="408" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5319,7 +5349,7 @@
       <c r="E408" s="5"/>
       <c r="F408" s="5"/>
     </row>
-    <row r="409" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5330,7 +5360,7 @@
       <c r="E409" s="5"/>
       <c r="F409" s="5"/>
     </row>
-    <row r="410" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5341,7 +5371,7 @@
       <c r="E410" s="5"/>
       <c r="F410" s="5"/>
     </row>
-    <row r="411" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5352,7 +5382,7 @@
       <c r="E411" s="5"/>
       <c r="F411" s="5"/>
     </row>
-    <row r="412" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5363,7 +5393,7 @@
       <c r="E412" s="5"/>
       <c r="F412" s="5"/>
     </row>
-    <row r="413" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5374,7 +5404,7 @@
       <c r="E413" s="5"/>
       <c r="F413" s="5"/>
     </row>
-    <row r="414" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5385,7 +5415,7 @@
       <c r="E414" s="5"/>
       <c r="F414" s="5"/>
     </row>
-    <row r="415" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5396,7 +5426,7 @@
       <c r="E415" s="5"/>
       <c r="F415" s="5"/>
     </row>
-    <row r="416" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5407,7 +5437,7 @@
       <c r="E416" s="5"/>
       <c r="F416" s="5"/>
     </row>
-    <row r="417" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5418,7 +5448,7 @@
       <c r="E417" s="5"/>
       <c r="F417" s="5"/>
     </row>
-    <row r="418" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5429,7 +5459,7 @@
       <c r="E418" s="5"/>
       <c r="F418" s="5"/>
     </row>
-    <row r="419" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5440,7 +5470,7 @@
       <c r="E419" s="5"/>
       <c r="F419" s="5"/>
     </row>
-    <row r="420" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5451,7 +5481,7 @@
       <c r="E420" s="5"/>
       <c r="F420" s="5"/>
     </row>
-    <row r="421" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5462,7 +5492,7 @@
       <c r="E421" s="5"/>
       <c r="F421" s="5"/>
     </row>
-    <row r="422" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5473,7 +5503,7 @@
       <c r="E422" s="5"/>
       <c r="F422" s="5"/>
     </row>
-    <row r="423" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5484,7 +5514,7 @@
       <c r="E423" s="5"/>
       <c r="F423" s="5"/>
     </row>
-    <row r="424" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5495,7 +5525,7 @@
       <c r="E424" s="5"/>
       <c r="F424" s="5"/>
     </row>
-    <row r="425" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5506,7 +5536,7 @@
       <c r="E425" s="5"/>
       <c r="F425" s="5"/>
     </row>
-    <row r="426" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5517,7 +5547,7 @@
       <c r="E426" s="5"/>
       <c r="F426" s="5"/>
     </row>
-    <row r="427" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5528,7 +5558,7 @@
       <c r="E427" s="5"/>
       <c r="F427" s="5"/>
     </row>
-    <row r="428" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5539,7 +5569,7 @@
       <c r="E428" s="5"/>
       <c r="F428" s="5"/>
     </row>
-    <row r="429" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5550,7 +5580,7 @@
       <c r="E429" s="5"/>
       <c r="F429" s="5"/>
     </row>
-    <row r="430" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5561,7 +5591,7 @@
       <c r="E430" s="5"/>
       <c r="F430" s="5"/>
     </row>
-    <row r="431" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5572,7 +5602,7 @@
       <c r="E431" s="5"/>
       <c r="F431" s="5"/>
     </row>
-    <row r="432" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5583,7 +5613,7 @@
       <c r="E432" s="5"/>
       <c r="F432" s="5"/>
     </row>
-    <row r="433" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5594,7 +5624,7 @@
       <c r="E433" s="5"/>
       <c r="F433" s="5"/>
     </row>
-    <row r="434" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5605,7 +5635,7 @@
       <c r="E434" s="5"/>
       <c r="F434" s="5"/>
     </row>
-    <row r="435" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5616,7 +5646,7 @@
       <c r="E435" s="5"/>
       <c r="F435" s="5"/>
     </row>
-    <row r="436" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5627,7 +5657,7 @@
       <c r="E436" s="5"/>
       <c r="F436" s="5"/>
     </row>
-    <row r="437" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5638,7 +5668,7 @@
       <c r="E437" s="5"/>
       <c r="F437" s="5"/>
     </row>
-    <row r="438" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5649,7 +5679,7 @@
       <c r="E438" s="5"/>
       <c r="F438" s="5"/>
     </row>
-    <row r="439" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5660,7 +5690,7 @@
       <c r="E439" s="5"/>
       <c r="F439" s="5"/>
     </row>
-    <row r="440" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5671,7 +5701,7 @@
       <c r="E440" s="5"/>
       <c r="F440" s="5"/>
     </row>
-    <row r="441" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5682,7 +5712,7 @@
       <c r="E441" s="5"/>
       <c r="F441" s="5"/>
     </row>
-    <row r="442" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5693,7 +5723,7 @@
       <c r="E442" s="5"/>
       <c r="F442" s="5"/>
     </row>
-    <row r="443" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5704,7 +5734,7 @@
       <c r="E443" s="5"/>
       <c r="F443" s="5"/>
     </row>
-    <row r="444" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5715,7 +5745,7 @@
       <c r="E444" s="5"/>
       <c r="F444" s="5"/>
     </row>
-    <row r="445" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5726,7 +5756,7 @@
       <c r="E445" s="5"/>
       <c r="F445" s="5"/>
     </row>
-    <row r="446" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5737,7 +5767,7 @@
       <c r="E446" s="5"/>
       <c r="F446" s="5"/>
     </row>
-    <row r="447" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5748,7 +5778,7 @@
       <c r="E447" s="5"/>
       <c r="F447" s="5"/>
     </row>
-    <row r="448" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5759,7 +5789,7 @@
       <c r="E448" s="5"/>
       <c r="F448" s="5"/>
     </row>
-    <row r="449" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5770,7 +5800,7 @@
       <c r="E449" s="5"/>
       <c r="F449" s="5"/>
     </row>
-    <row r="450" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5781,7 +5811,7 @@
       <c r="E450" s="5"/>
       <c r="F450" s="5"/>
     </row>
-    <row r="451" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="4" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -5792,7 +5822,7 @@
       <c r="E451" s="5"/>
       <c r="F451" s="5"/>
     </row>
-    <row r="452" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="4" t="str">
         <f t="shared" ref="A452:A500" si="7">IF(B452&lt;&gt;"",$A$2,"")</f>
         <v/>
@@ -5803,7 +5833,7 @@
       <c r="E452" s="5"/>
       <c r="F452" s="5"/>
     </row>
-    <row r="453" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5814,7 +5844,7 @@
       <c r="E453" s="5"/>
       <c r="F453" s="5"/>
     </row>
-    <row r="454" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5825,7 +5855,7 @@
       <c r="E454" s="5"/>
       <c r="F454" s="5"/>
     </row>
-    <row r="455" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5836,7 +5866,7 @@
       <c r="E455" s="5"/>
       <c r="F455" s="5"/>
     </row>
-    <row r="456" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5847,7 +5877,7 @@
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
     </row>
-    <row r="457" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5858,7 +5888,7 @@
       <c r="E457" s="5"/>
       <c r="F457" s="5"/>
     </row>
-    <row r="458" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5869,7 +5899,7 @@
       <c r="E458" s="5"/>
       <c r="F458" s="5"/>
     </row>
-    <row r="459" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5880,7 +5910,7 @@
       <c r="E459" s="5"/>
       <c r="F459" s="5"/>
     </row>
-    <row r="460" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5891,7 +5921,7 @@
       <c r="E460" s="5"/>
       <c r="F460" s="5"/>
     </row>
-    <row r="461" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5902,7 +5932,7 @@
       <c r="E461" s="5"/>
       <c r="F461" s="5"/>
     </row>
-    <row r="462" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5913,7 +5943,7 @@
       <c r="E462" s="5"/>
       <c r="F462" s="5"/>
     </row>
-    <row r="463" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5924,7 +5954,7 @@
       <c r="E463" s="5"/>
       <c r="F463" s="5"/>
     </row>
-    <row r="464" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5935,7 +5965,7 @@
       <c r="E464" s="5"/>
       <c r="F464" s="5"/>
     </row>
-    <row r="465" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5946,7 +5976,7 @@
       <c r="E465" s="5"/>
       <c r="F465" s="5"/>
     </row>
-    <row r="466" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5957,7 +5987,7 @@
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
     </row>
-    <row r="467" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5968,7 +5998,7 @@
       <c r="E467" s="5"/>
       <c r="F467" s="5"/>
     </row>
-    <row r="468" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5979,7 +6009,7 @@
       <c r="E468" s="5"/>
       <c r="F468" s="5"/>
     </row>
-    <row r="469" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5990,7 +6020,7 @@
       <c r="E469" s="5"/>
       <c r="F469" s="5"/>
     </row>
-    <row r="470" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6001,7 +6031,7 @@
       <c r="E470" s="5"/>
       <c r="F470" s="5"/>
     </row>
-    <row r="471" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6012,7 +6042,7 @@
       <c r="E471" s="5"/>
       <c r="F471" s="5"/>
     </row>
-    <row r="472" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6023,7 +6053,7 @@
       <c r="E472" s="5"/>
       <c r="F472" s="5"/>
     </row>
-    <row r="473" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6034,7 +6064,7 @@
       <c r="E473" s="5"/>
       <c r="F473" s="5"/>
     </row>
-    <row r="474" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6045,7 +6075,7 @@
       <c r="E474" s="5"/>
       <c r="F474" s="5"/>
     </row>
-    <row r="475" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6056,7 +6086,7 @@
       <c r="E475" s="5"/>
       <c r="F475" s="5"/>
     </row>
-    <row r="476" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6067,7 +6097,7 @@
       <c r="E476" s="5"/>
       <c r="F476" s="5"/>
     </row>
-    <row r="477" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6078,7 +6108,7 @@
       <c r="E477" s="5"/>
       <c r="F477" s="5"/>
     </row>
-    <row r="478" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6089,7 +6119,7 @@
       <c r="E478" s="5"/>
       <c r="F478" s="5"/>
     </row>
-    <row r="479" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6100,7 +6130,7 @@
       <c r="E479" s="5"/>
       <c r="F479" s="5"/>
     </row>
-    <row r="480" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6111,7 +6141,7 @@
       <c r="E480" s="5"/>
       <c r="F480" s="5"/>
     </row>
-    <row r="481" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6122,7 +6152,7 @@
       <c r="E481" s="5"/>
       <c r="F481" s="5"/>
     </row>
-    <row r="482" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6133,7 +6163,7 @@
       <c r="E482" s="5"/>
       <c r="F482" s="5"/>
     </row>
-    <row r="483" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6144,7 +6174,7 @@
       <c r="E483" s="5"/>
       <c r="F483" s="5"/>
     </row>
-    <row r="484" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6155,7 +6185,7 @@
       <c r="E484" s="5"/>
       <c r="F484" s="5"/>
     </row>
-    <row r="485" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6166,7 +6196,7 @@
       <c r="E485" s="5"/>
       <c r="F485" s="5"/>
     </row>
-    <row r="486" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6177,7 +6207,7 @@
       <c r="E486" s="5"/>
       <c r="F486" s="5"/>
     </row>
-    <row r="487" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6188,7 +6218,7 @@
       <c r="E487" s="5"/>
       <c r="F487" s="5"/>
     </row>
-    <row r="488" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6199,7 +6229,7 @@
       <c r="E488" s="5"/>
       <c r="F488" s="5"/>
     </row>
-    <row r="489" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6210,7 +6240,7 @@
       <c r="E489" s="5"/>
       <c r="F489" s="5"/>
     </row>
-    <row r="490" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6221,7 +6251,7 @@
       <c r="E490" s="5"/>
       <c r="F490" s="5"/>
     </row>
-    <row r="491" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6232,7 +6262,7 @@
       <c r="E491" s="5"/>
       <c r="F491" s="5"/>
     </row>
-    <row r="492" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6243,7 +6273,7 @@
       <c r="E492" s="5"/>
       <c r="F492" s="5"/>
     </row>
-    <row r="493" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6254,7 +6284,7 @@
       <c r="E493" s="5"/>
       <c r="F493" s="5"/>
     </row>
-    <row r="494" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6265,7 +6295,7 @@
       <c r="E494" s="5"/>
       <c r="F494" s="5"/>
     </row>
-    <row r="495" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6276,7 +6306,7 @@
       <c r="E495" s="5"/>
       <c r="F495" s="5"/>
     </row>
-    <row r="496" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6287,7 +6317,7 @@
       <c r="E496" s="5"/>
       <c r="F496" s="5"/>
     </row>
-    <row r="497" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6298,7 +6328,7 @@
       <c r="E497" s="5"/>
       <c r="F497" s="5"/>
     </row>
-    <row r="498" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6309,7 +6339,7 @@
       <c r="E498" s="5"/>
       <c r="F498" s="5"/>
     </row>
-    <row r="499" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6320,7 +6350,7 @@
       <c r="E499" s="5"/>
       <c r="F499" s="5"/>
     </row>
-    <row r="500" spans="1:6" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="4" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6338,19 +6368,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Foglio2!$E$2:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F500</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Foglio2!$C$2:$C$7</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E500</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Foglio2!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -6363,20 +6393,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6384,7 +6414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -6406,7 +6436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -6414,7 +6444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
@@ -6422,12 +6452,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>14</v>
       </c>
